--- a/biology/Botanique/Heinrich_Josef_Guthnick/Heinrich_Josef_Guthnick.xlsx
+++ b/biology/Botanique/Heinrich_Josef_Guthnick/Heinrich_Josef_Guthnick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Josef Guthnick est un pharmacien et un botaniste suisse, né le 22 novembre 1800 à Therenhofen, près de Cologne et mort le 21 mars 1880 à Berne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un chirurgien, il épouse Wilhelmine Julie Adelheid Hörning. Il tient une officine à Thoune en 1829 puis à Berne de 1835 à 1850. Il étudie la flore des Alpes, participe à la vie du Musée d’histoire naturelle de 1859 à 1880 et codirige le jardin botanique de 1852 à 1859.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la recherche : Harvard University Herbaria &amp; Libraries International Plant Names Index  
